--- a/biology/Botanique/Polystachya_kupensis/Polystachya_kupensis.xlsx
+++ b/biology/Botanique/Polystachya_kupensis/Polystachya_kupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachya kupensis P.J.Cribb &amp; B.J.Pollard est une espèce de plantes de la famille des Orchidaceae, du genre Polystachya[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachya kupensis P.J.Cribb &amp; B.J.Pollard est une espèce de plantes de la famille des Orchidaceae, du genre Polystachya,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une orchidée, du groupe des monocotylédones, endémique au Cameroun[4]. Elle croît dans les régions tropicales ou subtropicales, dans les plaines humides. Elle est évaluée comme une espèce en danger critique "CR"[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une orchidée, du groupe des monocotylédones, endémique au Cameroun. Elle croît dans les régions tropicales ou subtropicales, dans les plaines humides. Elle est évaluée comme une espèce en danger critique "CR",.
 </t>
         </is>
       </c>
